--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_diff_constant_prefilled/diff_filled_a4_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_diff_constant_prefilled/diff_filled_a4_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6129032258064516</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="C3">
-        <v>0.5080527086383602</v>
+        <v>0.5065502183406113</v>
       </c>
       <c r="D3">
-        <v>0.5945945945945946</v>
+        <v>0.5662100456621004</v>
       </c>
       <c r="E3">
-        <v>0.4957386363636364</v>
+        <v>0.4971428571428572</v>
       </c>
       <c r="F3">
-        <v>0.5694117647058824</v>
+        <v>0.6052009456264775</v>
       </c>
       <c r="G3">
-        <v>0.497229916897507</v>
+        <v>0.5034578146611342</v>
       </c>
       <c r="H3">
-        <v>0.5026666666666667</v>
+        <v>0.4973333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6019417475728155</v>
+        <v>0.6185567010309279</v>
       </c>
       <c r="C4">
-        <v>0.4992248062015504</v>
+        <v>0.5138036809815951</v>
       </c>
       <c r="D4">
-        <v>0.6489028213166145</v>
+        <v>0.5898203592814372</v>
       </c>
       <c r="E4">
-        <v>0.4517497348886532</v>
+        <v>0.46723044397463</v>
       </c>
       <c r="F4">
-        <v>0.6433566433566433</v>
+        <v>0.6677740863787376</v>
       </c>
       <c r="G4">
-        <v>0.464746772591857</v>
+        <v>0.46</v>
       </c>
       <c r="H4">
-        <v>0.5106666666666667</v>
+        <v>0.4986666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6422764227642277</v>
+        <v>0.5801526717557252</v>
       </c>
       <c r="C5">
-        <v>0.4959612277867528</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.678030303030303</v>
+        <v>0.5848375451263538</v>
       </c>
       <c r="E5">
-        <v>0.444232602478551</v>
+        <v>0.4632713026444662</v>
       </c>
       <c r="F5">
-        <v>0.6681614349775785</v>
+        <v>0.6547085201793722</v>
       </c>
       <c r="G5">
-        <v>0.4569892473118279</v>
+        <v>0.4595588235294117</v>
       </c>
       <c r="H5">
-        <v>0.5146666666666667</v>
+        <v>0.4906666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6791044776119403</v>
+        <v>0.6423357664233577</v>
       </c>
       <c r="C6">
-        <v>0.487012987012987</v>
+        <v>0.5108514190317195</v>
       </c>
       <c r="D6">
-        <v>0.6589147286821705</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="E6">
-        <v>0.4429097605893186</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="F6">
-        <v>0.6601941747572816</v>
+        <v>0.6291079812206573</v>
       </c>
       <c r="G6">
-        <v>0.4721030042918455</v>
+        <v>0.4790940766550523</v>
       </c>
       <c r="H6">
-        <v>0.4973333333333333</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.632258064516129</v>
+        <v>0.6733333333333333</v>
       </c>
       <c r="C7">
-        <v>0.4720394736842105</v>
+        <v>0.4933554817275748</v>
       </c>
       <c r="D7">
-        <v>0.6694560669456067</v>
+        <v>0.5732758620689655</v>
       </c>
       <c r="E7">
-        <v>0.4517625231910946</v>
+        <v>0.4576744186046512</v>
       </c>
       <c r="F7">
-        <v>0.6318681318681318</v>
+        <v>0.6402116402116402</v>
       </c>
       <c r="G7">
-        <v>0.4757785467128028</v>
+        <v>0.4749568221070812</v>
       </c>
       <c r="H7">
-        <v>0.5013333333333333</v>
+        <v>0.4893333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6918604651162791</v>
+        <v>0.6987179487179487</v>
       </c>
       <c r="C8">
-        <v>0.4852459016393443</v>
+        <v>0.4819078947368421</v>
       </c>
       <c r="D8">
-        <v>0.6571428571428571</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="E8">
-        <v>0.453382084095064</v>
+        <v>0.4580703336339044</v>
       </c>
       <c r="F8">
-        <v>0.5685279187817259</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="G8">
-        <v>0.4829351535836178</v>
+        <v>0.4710391822827938</v>
       </c>
       <c r="H8">
-        <v>0.4986666666666666</v>
+        <v>0.4973333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,22 +608,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6946107784431138</v>
+        <v>0.7204968944099379</v>
       </c>
       <c r="C9">
-        <v>0.4767441860465116</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="D9">
-        <v>0.6083333333333333</v>
+        <v>0.5980861244019139</v>
       </c>
       <c r="E9">
-        <v>0.459016393442623</v>
+        <v>0.4575513851653262</v>
       </c>
       <c r="F9">
-        <v>0.5927835051546392</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="G9">
-        <v>0.4858125537403267</v>
+        <v>0.4746192893401015</v>
       </c>
       <c r="H9">
         <v>0.4973333333333333</v>
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="C10">
-        <v>0.4888178913738019</v>
+        <v>0.4890282131661442</v>
       </c>
       <c r="D10">
-        <v>0.5795918367346938</v>
+        <v>0.6039603960396039</v>
       </c>
       <c r="E10">
-        <v>0.4621695533272562</v>
+        <v>0.4643799472295514</v>
       </c>
       <c r="F10">
-        <v>0.5882352941176471</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="G10">
-        <v>0.4767241379310345</v>
+        <v>0.4764756201881951</v>
       </c>
       <c r="H10">
-        <v>0.4973333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7169811320754716</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C11">
-        <v>0.4938461538461538</v>
+        <v>0.5039745627980922</v>
       </c>
       <c r="D11">
-        <v>0.569620253164557</v>
+        <v>0.5598086124401914</v>
       </c>
       <c r="E11">
-        <v>0.4604779411764706</v>
+        <v>0.4657293497363796</v>
       </c>
       <c r="F11">
-        <v>0.5925925925925926</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="G11">
-        <v>0.4702797202797203</v>
+        <v>0.4727744165946413</v>
       </c>
       <c r="H11">
-        <v>0.4933333333333333</v>
+        <v>0.5013333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.69375</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="C12">
-        <v>0.4954545454545455</v>
+        <v>0.4928229665071771</v>
       </c>
       <c r="D12">
-        <v>0.5941422594142259</v>
+        <v>0.5645933014354066</v>
       </c>
       <c r="E12">
-        <v>0.456778889899909</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="F12">
-        <v>0.615</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="G12">
-        <v>0.4754521963824289</v>
+        <v>0.4729965156794425</v>
       </c>
       <c r="H12">
-        <v>0.484</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6867469879518072</v>
+        <v>0.6284153005464481</v>
       </c>
       <c r="C13">
-        <v>0.5029498525073747</v>
+        <v>0.4937106918238994</v>
       </c>
       <c r="D13">
-        <v>0.5982142857142857</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="E13">
-        <v>0.4476275738585497</v>
+        <v>0.4598930481283423</v>
       </c>
       <c r="F13">
-        <v>0.6236559139784946</v>
+        <v>0.5728155339805825</v>
       </c>
       <c r="G13">
-        <v>0.4704875962360992</v>
+        <v>0.4638447971781305</v>
       </c>
       <c r="H13">
-        <v>0.484</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6242774566473989</v>
+        <v>0.6726190476190477</v>
       </c>
       <c r="C14">
-        <v>0.5116959064327485</v>
+        <v>0.4984984984984985</v>
       </c>
       <c r="D14">
-        <v>0.6009174311926605</v>
+        <v>0.59375</v>
       </c>
       <c r="E14">
-        <v>0.4466192170818505</v>
+        <v>0.4543057996485061</v>
       </c>
       <c r="F14">
-        <v>0.6298342541436464</v>
+        <v>0.5643564356435643</v>
       </c>
       <c r="G14">
-        <v>0.4736394557823129</v>
+        <v>0.4542314335060449</v>
       </c>
       <c r="H14">
-        <v>0.4853333333333333</v>
+        <v>0.5186666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6368715083798883</v>
+        <v>0.6646706586826348</v>
       </c>
       <c r="C15">
-        <v>0.5272206303724928</v>
+        <v>0.4828080229226361</v>
       </c>
       <c r="D15">
-        <v>0.6053811659192825</v>
+        <v>0.6303317535545023</v>
       </c>
       <c r="E15">
-        <v>0.4522968197879859</v>
+        <v>0.4540636042402827</v>
       </c>
       <c r="F15">
-        <v>0.601010101010101</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="G15">
-        <v>0.4700926705981466</v>
+        <v>0.4626609442060086</v>
       </c>
       <c r="H15">
-        <v>0.4933333333333333</v>
+        <v>0.5066666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="C16">
-        <v>0.5163584637268848</v>
+        <v>0.4821173104434907</v>
       </c>
       <c r="D16">
-        <v>0.6183574879227053</v>
+        <v>0.6355140186915887</v>
       </c>
       <c r="E16">
-        <v>0.4512411347517731</v>
+        <v>0.4531668153434433</v>
       </c>
       <c r="F16">
-        <v>0.5714285714285714</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="G16">
-        <v>0.4722932651321398</v>
+        <v>0.4503882657463331</v>
       </c>
       <c r="H16">
-        <v>0.4866666666666667</v>
+        <v>0.5053333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6534090909090909</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="C17">
-        <v>0.5006747638326585</v>
+        <v>0.4873239436619718</v>
       </c>
       <c r="D17">
-        <v>0.6066350710900474</v>
+        <v>0.6228070175438597</v>
       </c>
       <c r="E17">
-        <v>0.4489082969432314</v>
+        <v>0.4600179694519317</v>
       </c>
       <c r="F17">
-        <v>0.519774011299435</v>
+        <v>0.5687203791469194</v>
       </c>
       <c r="G17">
-        <v>0.4715719063545151</v>
+        <v>0.444153577661431</v>
       </c>
       <c r="H17">
-        <v>0.496</v>
+        <v>0.5026666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7055214723926381</v>
+        <v>0.634020618556701</v>
       </c>
       <c r="C18">
-        <v>0.497289972899729</v>
+        <v>0.4745042492917847</v>
       </c>
       <c r="D18">
-        <v>0.6733668341708543</v>
+        <v>0.6073059360730594</v>
       </c>
       <c r="E18">
-        <v>0.4563106796116505</v>
+        <v>0.4673321234119782</v>
       </c>
       <c r="F18">
-        <v>0.5207100591715976</v>
+        <v>0.5431472081218274</v>
       </c>
       <c r="G18">
-        <v>0.4763912310286678</v>
+        <v>0.4543844109831709</v>
       </c>
       <c r="H18">
-        <v>0.48</v>
+        <v>0.4826666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7073170731707317</v>
+        <v>0.7087912087912088</v>
       </c>
       <c r="C19">
-        <v>0.4761904761904762</v>
+        <v>0.4901408450704225</v>
       </c>
       <c r="D19">
-        <v>0.6255707762557078</v>
+        <v>0.6294642857142857</v>
       </c>
       <c r="E19">
-        <v>0.4514692787177204</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="F19">
-        <v>0.5132275132275133</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="G19">
-        <v>0.4700854700854701</v>
+        <v>0.4609375</v>
       </c>
       <c r="H19">
-        <v>0.4906666666666666</v>
+        <v>0.4653333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6909090909090909</v>
+        <v>0.6898395721925134</v>
       </c>
       <c r="C20">
-        <v>0.4954367666232073</v>
+        <v>0.4724091520861373</v>
       </c>
       <c r="D20">
-        <v>0.6457399103139013</v>
+        <v>0.5688073394495413</v>
       </c>
       <c r="E20">
-        <v>0.4587073608617595</v>
+        <v>0.4699115044247787</v>
       </c>
       <c r="F20">
-        <v>0.5532994923857868</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G20">
-        <v>0.4663212435233161</v>
+        <v>0.4550173010380623</v>
       </c>
       <c r="H20">
-        <v>0.4946666666666666</v>
+        <v>0.4626666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6764705882352942</v>
+        <v>0.6982248520710059</v>
       </c>
       <c r="C21">
-        <v>0.4948320413436693</v>
+        <v>0.4776902887139108</v>
       </c>
       <c r="D21">
-        <v>0.5585585585585585</v>
+        <v>0.5748792270531401</v>
       </c>
       <c r="E21">
-        <v>0.4561717352415027</v>
+        <v>0.4724890829694323</v>
       </c>
       <c r="F21">
-        <v>0.6</v>
+        <v>0.5707070707070707</v>
       </c>
       <c r="G21">
-        <v>0.4602763385146805</v>
+        <v>0.4485981308411215</v>
       </c>
       <c r="H21">
-        <v>0.496</v>
+        <v>0.4746666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6436781609195402</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="C22">
-        <v>0.4898989898989899</v>
+        <v>0.478643216080402</v>
       </c>
       <c r="D22">
-        <v>0.6100917431192661</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="E22">
-        <v>0.4600355239786856</v>
+        <v>0.4717145343777198</v>
       </c>
       <c r="F22">
-        <v>0.5867346938775511</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G22">
-        <v>0.4562446898895497</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="H22">
-        <v>0.4826666666666667</v>
+        <v>0.4733333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6910112359550562</v>
+        <v>0.7452229299363057</v>
       </c>
       <c r="C23">
-        <v>0.4819875776397515</v>
+        <v>0.4881101376720901</v>
       </c>
       <c r="D23">
-        <v>0.6351351351351351</v>
+        <v>0.5879120879120879</v>
       </c>
       <c r="E23">
-        <v>0.4539069359086919</v>
+        <v>0.4770562770562771</v>
       </c>
       <c r="F23">
-        <v>0.5930232558139535</v>
+        <v>0.581151832460733</v>
       </c>
       <c r="G23">
-        <v>0.4616695059625213</v>
+        <v>0.4578005115089514</v>
       </c>
       <c r="H23">
-        <v>0.472</v>
+        <v>0.4586666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6864864864864865</v>
+        <v>0.7125</v>
       </c>
       <c r="C24">
-        <v>0.4600246002460024</v>
+        <v>0.4908869987849332</v>
       </c>
       <c r="D24">
-        <v>0.6588785046728972</v>
+        <v>0.510752688172043</v>
       </c>
       <c r="E24">
-        <v>0.4590017825311943</v>
+        <v>0.4878472222222222</v>
       </c>
       <c r="F24">
-        <v>0.5771428571428572</v>
+        <v>0.5369458128078818</v>
       </c>
       <c r="G24">
-        <v>0.4713322091062395</v>
+        <v>0.4612068965517241</v>
       </c>
       <c r="H24">
-        <v>0.468</v>
+        <v>0.4453333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6373056994818653</v>
+        <v>0.6627906976744186</v>
       </c>
       <c r="C25">
-        <v>0.4577883472057075</v>
+        <v>0.4970202622169249</v>
       </c>
       <c r="D25">
-        <v>0.683982683982684</v>
+        <v>0.5431472081218274</v>
       </c>
       <c r="E25">
-        <v>0.462817147856518</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="F25">
-        <v>0.6</v>
+        <v>0.5279187817258884</v>
       </c>
       <c r="G25">
-        <v>0.4698996655518395</v>
+        <v>0.4558058925476603</v>
       </c>
       <c r="H25">
-        <v>0.4773333333333333</v>
+        <v>0.4546666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6684491978609626</v>
+        <v>0.625</v>
       </c>
       <c r="C26">
-        <v>0.4738095238095238</v>
+        <v>0.5035545023696683</v>
       </c>
       <c r="D26">
-        <v>0.7019230769230769</v>
+        <v>0.5435897435897435</v>
       </c>
       <c r="E26">
-        <v>0.4684444444444444</v>
+        <v>0.4874022589052998</v>
       </c>
       <c r="F26">
-        <v>0.6058823529411764</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="G26">
-        <v>0.4613445378151261</v>
+        <v>0.450473729543497</v>
       </c>
       <c r="H26">
-        <v>0.4786666666666667</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7103825136612022</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C27">
-        <v>0.4606481481481481</v>
+        <v>0.5058548009367682</v>
       </c>
       <c r="D27">
-        <v>0.6342592592592593</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E27">
-        <v>0.4683098591549296</v>
+        <v>0.4864391951006124</v>
       </c>
       <c r="F27">
-        <v>0.574468085106383</v>
+        <v>0.5645161290322581</v>
       </c>
       <c r="G27">
-        <v>0.4663865546218487</v>
+        <v>0.4470284237726098</v>
       </c>
       <c r="H27">
-        <v>0.4693333333333333</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="C28">
-        <v>0.4566929133858268</v>
+        <v>0.4965277777777778</v>
       </c>
       <c r="D28">
-        <v>0.6604651162790698</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="E28">
-        <v>0.4753521126760563</v>
+        <v>0.4811237928007024</v>
       </c>
       <c r="F28">
-        <v>0.5945945945945946</v>
+        <v>0.5906735751295337</v>
       </c>
       <c r="G28">
-        <v>0.4583333333333333</v>
+        <v>0.4430162810625535</v>
       </c>
       <c r="H28">
-        <v>0.464</v>
+        <v>0.4493333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.695906432748538</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="C29">
-        <v>0.4743303571428572</v>
+        <v>0.4849162011173184</v>
       </c>
       <c r="D29">
-        <v>0.6328502415458938</v>
+        <v>0.6098654708520179</v>
       </c>
       <c r="E29">
-        <v>0.472</v>
+        <v>0.4850615114235501</v>
       </c>
       <c r="F29">
-        <v>0.6032608695652174</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="G29">
-        <v>0.4545454545454545</v>
+        <v>0.4385072094995759</v>
       </c>
       <c r="H29">
-        <v>0.4826666666666667</v>
+        <v>0.4546666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.6793478260869565</v>
+        <v>0.7034883720930233</v>
       </c>
       <c r="C30">
-        <v>0.4775465498357064</v>
+        <v>0.484118291347207</v>
       </c>
       <c r="D30">
-        <v>0.5475113122171946</v>
+        <v>0.62</v>
       </c>
       <c r="E30">
-        <v>0.4782608695652174</v>
+        <v>0.4850088183421516</v>
       </c>
       <c r="F30">
-        <v>0.6134020618556701</v>
+        <v>0.5875706214689266</v>
       </c>
       <c r="G30">
-        <v>0.4484536082474227</v>
+        <v>0.4390862944162436</v>
       </c>
       <c r="H30">
-        <v>0.484</v>
+        <v>0.4586666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.6629213483146067</v>
+        <v>0.6726190476190477</v>
       </c>
       <c r="C31">
-        <v>0.4713024282560707</v>
+        <v>0.487152034261242</v>
       </c>
       <c r="D31">
-        <v>0.5707547169811321</v>
+        <v>0.6091370558375635</v>
       </c>
       <c r="E31">
-        <v>0.4779080252479712</v>
+        <v>0.4869791666666667</v>
       </c>
       <c r="F31">
-        <v>0.5824742268041238</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="G31">
-        <v>0.4475281873373808</v>
+        <v>0.4397641112047178</v>
       </c>
       <c r="H31">
-        <v>0.4786666666666667</v>
+        <v>0.4626666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6906077348066298</v>
+        <v>0.6534090909090909</v>
       </c>
       <c r="C32">
-        <v>0.4765027322404372</v>
+        <v>0.4865145228215768</v>
       </c>
       <c r="D32">
-        <v>0.6046511627906976</v>
+        <v>0.6020942408376964</v>
       </c>
       <c r="E32">
-        <v>0.4744394618834081</v>
+        <v>0.4871575342465753</v>
       </c>
       <c r="F32">
-        <v>0.6</v>
+        <v>0.5606936416184971</v>
       </c>
       <c r="G32">
-        <v>0.455574912891986</v>
+        <v>0.4400670578373848</v>
       </c>
       <c r="H32">
-        <v>0.4733333333333333</v>
+        <v>0.4706666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6923076923076923</v>
+        <v>0.6526946107784432</v>
       </c>
       <c r="C33">
-        <v>0.4722222222222222</v>
+        <v>0.4932642487046632</v>
       </c>
       <c r="D33">
-        <v>0.583710407239819</v>
+        <v>0.6312849162011173</v>
       </c>
       <c r="E33">
-        <v>0.4687224669603524</v>
+        <v>0.4909560723514212</v>
       </c>
       <c r="F33">
-        <v>0.6037735849056604</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="G33">
-        <v>0.4474137931034483</v>
+        <v>0.4394957983193277</v>
       </c>
       <c r="H33">
-        <v>0.4786666666666667</v>
+        <v>0.4626666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6882352941176471</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C34">
-        <v>0.4760914760914761</v>
+        <v>0.5</v>
       </c>
       <c r="D34">
-        <v>0.5833333333333334</v>
+        <v>0.5804878048780487</v>
       </c>
       <c r="E34">
-        <v>0.4637809187279152</v>
+        <v>0.4917891097666379</v>
       </c>
       <c r="F34">
-        <v>0.6236559139784946</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G34">
-        <v>0.446167097329888</v>
+        <v>0.4435075885328836</v>
       </c>
       <c r="H34">
-        <v>0.4733333333333333</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7055214723926381</v>
+        <v>0.703030303030303</v>
       </c>
       <c r="C35">
-        <v>0.4741116751269036</v>
+        <v>0.4896755162241888</v>
       </c>
       <c r="D35">
-        <v>0.5572139303482587</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="E35">
-        <v>0.466724286949006</v>
+        <v>0.4974137931034483</v>
       </c>
       <c r="F35">
-        <v>0.631578947368421</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="G35">
-        <v>0.4460492778249788</v>
+        <v>0.4458438287153653</v>
       </c>
       <c r="H35">
-        <v>0.4733333333333333</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7393939393939394</v>
+        <v>0.7005988023952096</v>
       </c>
       <c r="C36">
-        <v>0.4806739345887017</v>
+        <v>0.4855491329479769</v>
       </c>
       <c r="D36">
-        <v>0.6102564102564103</v>
+        <v>0.609375</v>
       </c>
       <c r="E36">
-        <v>0.4745470232959448</v>
+        <v>0.4943917169974116</v>
       </c>
       <c r="F36">
-        <v>0.6043956043956044</v>
+        <v>0.572289156626506</v>
       </c>
       <c r="G36">
-        <v>0.4574829931972789</v>
+        <v>0.4427609427609427</v>
       </c>
       <c r="H36">
-        <v>0.4546666666666667</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7023809523809523</v>
+        <v>0.6630434782608695</v>
       </c>
       <c r="C37">
-        <v>0.478134110787172</v>
+        <v>0.4834437086092715</v>
       </c>
       <c r="D37">
-        <v>0.5561497326203209</v>
+        <v>0.625</v>
       </c>
       <c r="E37">
-        <v>0.4768041237113402</v>
+        <v>0.4896551724137931</v>
       </c>
       <c r="F37">
-        <v>0.5989010989010989</v>
+        <v>0.5611111111111111</v>
       </c>
       <c r="G37">
-        <v>0.4623200677392041</v>
+        <v>0.4454697986577181</v>
       </c>
       <c r="H37">
-        <v>0.452</v>
+        <v>0.4386666666666666</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6685082872928176</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="C38">
-        <v>0.4861244019138756</v>
+        <v>0.4906367041198502</v>
       </c>
       <c r="D38">
-        <v>0.5561497326203209</v>
+        <v>0.6089108910891089</v>
       </c>
       <c r="E38">
-        <v>0.4803082191780822</v>
+        <v>0.4905498281786941</v>
       </c>
       <c r="F38">
-        <v>0.5706214689265536</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="G38">
-        <v>0.455770850884583</v>
+        <v>0.4492875104777871</v>
       </c>
       <c r="H38">
-        <v>0.448</v>
+        <v>0.4453333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6966292134831461</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C39">
-        <v>0.4868173258003766</v>
+        <v>0.4884579870729455</v>
       </c>
       <c r="D39">
-        <v>0.5519125683060109</v>
+        <v>0.6116504854368932</v>
       </c>
       <c r="E39">
-        <v>0.4864636209813875</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="F39">
-        <v>0.6193181818181818</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="G39">
-        <v>0.4534109816971714</v>
+        <v>0.4526404023470243</v>
       </c>
       <c r="H39">
-        <v>0.436</v>
+        <v>0.4386666666666666</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6596858638743456</v>
+        <v>0.6890243902439024</v>
       </c>
       <c r="C40">
-        <v>0.4863336475023562</v>
+        <v>0.4948837209302326</v>
       </c>
       <c r="D40">
-        <v>0.5977011494252874</v>
+        <v>0.6635071090047393</v>
       </c>
       <c r="E40">
-        <v>0.486159169550173</v>
+        <v>0.4941912421805183</v>
       </c>
       <c r="F40">
-        <v>0.5649717514124294</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="G40">
-        <v>0.4462320067739204</v>
+        <v>0.4468267581475129</v>
       </c>
       <c r="H40">
-        <v>0.4413333333333334</v>
+        <v>0.4506666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7237569060773481</v>
+        <v>0.7012195121951219</v>
       </c>
       <c r="C41">
-        <v>0.4900473933649289</v>
+        <v>0.4895549500454133</v>
       </c>
       <c r="D41">
-        <v>0.5707317073170731</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="E41">
-        <v>0.4781468531468531</v>
+        <v>0.4932614555256065</v>
       </c>
       <c r="F41">
-        <v>0.5477386934673367</v>
+        <v>0.5265700483091788</v>
       </c>
       <c r="G41">
-        <v>0.4513350559862188</v>
+        <v>0.4434706397896582</v>
       </c>
       <c r="H41">
-        <v>0.432</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.745945945945946</v>
+        <v>0.703030303030303</v>
       </c>
       <c r="C42">
-        <v>0.4783010156971376</v>
+        <v>0.4869486948694869</v>
       </c>
       <c r="D42">
-        <v>0.5714285714285714</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E42">
-        <v>0.4766519823788546</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="F42">
-        <v>0.6223404255319149</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G42">
-        <v>0.4493506493506493</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="H42">
-        <v>0.428</v>
+        <v>0.4626666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7344632768361582</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="C43">
-        <v>0.4736842105263158</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="D43">
-        <v>0.5934579439252337</v>
+        <v>0.6061946902654868</v>
       </c>
       <c r="E43">
-        <v>0.4767747589833479</v>
+        <v>0.4924578527062999</v>
       </c>
       <c r="F43">
-        <v>0.5955056179775281</v>
+        <v>0.5707317073170731</v>
       </c>
       <c r="G43">
-        <v>0.4418999151823579</v>
+        <v>0.4352331606217616</v>
       </c>
       <c r="H43">
-        <v>0.4266666666666667</v>
+        <v>0.4653333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7485714285714286</v>
+        <v>0.7005649717514124</v>
       </c>
       <c r="C44">
-        <v>0.4757709251101321</v>
+        <v>0.489778534923339</v>
       </c>
       <c r="D44">
-        <v>0.6040609137055838</v>
+        <v>0.6073059360730594</v>
       </c>
       <c r="E44">
-        <v>0.4809358752166378</v>
+        <v>0.4974003466204506</v>
       </c>
       <c r="F44">
-        <v>0.6172839506172839</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="G44">
-        <v>0.4495412844036697</v>
+        <v>0.4380791912384162</v>
       </c>
       <c r="H44">
-        <v>0.4306666666666666</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7292817679558011</v>
+        <v>0.7371428571428571</v>
       </c>
       <c r="C45">
-        <v>0.4693171996542783</v>
+        <v>0.4858125537403267</v>
       </c>
       <c r="D45">
-        <v>0.5888324873096447</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E45">
-        <v>0.4794520547945205</v>
+        <v>0.4916003536693192</v>
       </c>
       <c r="F45">
-        <v>0.5562913907284768</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="G45">
-        <v>0.4505766062602966</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="H45">
-        <v>0.4373333333333334</v>
+        <v>0.4626666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.708994708994709</v>
+        <v>0.7409638554216867</v>
       </c>
       <c r="C46">
-        <v>0.4775233248515691</v>
+        <v>0.4822934232715008</v>
       </c>
       <c r="D46">
-        <v>0.6089108910891089</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="E46">
-        <v>0.4840928632846088</v>
+        <v>0.4951197870452529</v>
       </c>
       <c r="F46">
-        <v>0.5521472392638037</v>
+        <v>0.6182795698924731</v>
       </c>
       <c r="G46">
-        <v>0.4517184942716858</v>
+        <v>0.4367622259696459</v>
       </c>
       <c r="H46">
-        <v>0.4413333333333334</v>
+        <v>0.4546666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7168674698795181</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C47">
-        <v>0.4722932651321398</v>
+        <v>0.4823336072308956</v>
       </c>
       <c r="D47">
-        <v>0.6048780487804878</v>
+        <v>0.5970873786407767</v>
       </c>
       <c r="E47">
-        <v>0.4830582102519548</v>
+        <v>0.4884751773049645</v>
       </c>
       <c r="F47">
-        <v>0.5476190476190477</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="G47">
-        <v>0.4494569757727652</v>
+        <v>0.4442567567567567</v>
       </c>
       <c r="H47">
-        <v>0.448</v>
+        <v>0.4413333333333334</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7261904761904762</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C48">
-        <v>0.4690117252931323</v>
+        <v>0.4825061025223759</v>
       </c>
       <c r="D48">
-        <v>0.638095238095238</v>
+        <v>0.6173469387755102</v>
       </c>
       <c r="E48">
-        <v>0.4728406055209261</v>
+        <v>0.4887152777777778</v>
       </c>
       <c r="F48">
-        <v>0.5614035087719298</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="G48">
-        <v>0.4488054607508533</v>
+        <v>0.447346251053075</v>
       </c>
       <c r="H48">
-        <v>0.4506666666666667</v>
+        <v>0.4466666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,22 +1648,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6744186046511628</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="C49">
-        <v>0.4589614740368509</v>
+        <v>0.4896166134185304</v>
       </c>
       <c r="D49">
-        <v>0.6198347107438017</v>
+        <v>0.5902439024390244</v>
       </c>
       <c r="E49">
-        <v>0.4751580849141825</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F49">
-        <v>0.5947368421052631</v>
+        <v>0.5865921787709497</v>
       </c>
       <c r="G49">
-        <v>0.4436801375752364</v>
+        <v>0.4464135021097047</v>
       </c>
       <c r="H49">
         <v>0.448</v>
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6228571428571429</v>
+        <v>0.6963350785340314</v>
       </c>
       <c r="C50">
-        <v>0.4683127572016461</v>
+        <v>0.4904458598726115</v>
       </c>
       <c r="D50">
-        <v>0.6401515151515151</v>
+        <v>0.592964824120603</v>
       </c>
       <c r="E50">
-        <v>0.4850948509485095</v>
+        <v>0.4938811188811189</v>
       </c>
       <c r="F50">
-        <v>0.5560975609756098</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="G50">
-        <v>0.4392123287671233</v>
+        <v>0.443500424808836</v>
       </c>
       <c r="H50">
-        <v>0.4533333333333333</v>
+        <v>0.4506666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6685393258426966</v>
+        <v>0.6898395721925134</v>
       </c>
       <c r="C51">
-        <v>0.4756493506493507</v>
+        <v>0.4940239043824701</v>
       </c>
       <c r="D51">
-        <v>0.6440677966101694</v>
+        <v>0.5933014354066986</v>
       </c>
       <c r="E51">
-        <v>0.4882246376811594</v>
+        <v>0.4943330427201395</v>
       </c>
       <c r="F51">
-        <v>0.5193370165745856</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="G51">
-        <v>0.4407502131287298</v>
+        <v>0.4378194207836457</v>
       </c>
       <c r="H51">
-        <v>0.4653333333333333</v>
+        <v>0.4573333333333333</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6918604651162791</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C52">
-        <v>0.4651162790697674</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="D52">
-        <v>0.6205357142857143</v>
+        <v>0.6009852216748769</v>
       </c>
       <c r="E52">
-        <v>0.4932735426008968</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="F52">
-        <v>0.5649717514124294</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="G52">
-        <v>0.4467905405405405</v>
+        <v>0.4342663273960984</v>
       </c>
       <c r="H52">
-        <v>0.4693333333333333</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7023809523809523</v>
+        <v>0.6972972972972973</v>
       </c>
       <c r="C53">
-        <v>0.4650980392156863</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="D53">
-        <v>0.6211453744493393</v>
+        <v>0.5947368421052631</v>
       </c>
       <c r="E53">
-        <v>0.4964664310954063</v>
+        <v>0.4795117698343505</v>
       </c>
       <c r="F53">
-        <v>0.5872093023255814</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="G53">
-        <v>0.4340890008396306</v>
+        <v>0.4364406779661017</v>
       </c>
       <c r="H53">
-        <v>0.4746666666666667</v>
+        <v>0.4586666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7232704402515723</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C54">
-        <v>0.4658385093167702</v>
+        <v>0.4953632148377125</v>
       </c>
       <c r="D54">
-        <v>0.6063348416289592</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="E54">
-        <v>0.5035460992907801</v>
+        <v>0.4826086956521739</v>
       </c>
       <c r="F54">
-        <v>0.5872093023255814</v>
+        <v>0.5923913043478261</v>
       </c>
       <c r="G54">
-        <v>0.4353628023352794</v>
+        <v>0.4360711261642676</v>
       </c>
       <c r="H54">
-        <v>0.464</v>
+        <v>0.4653333333333333</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6981132075471698</v>
+        <v>0.6703910614525139</v>
       </c>
       <c r="C55">
-        <v>0.463020030816641</v>
+        <v>0.4904361132364193</v>
       </c>
       <c r="D55">
-        <v>0.5818965517241379</v>
+        <v>0.5596330275229358</v>
       </c>
       <c r="E55">
-        <v>0.4986400725294651</v>
+        <v>0.4824868651488616</v>
       </c>
       <c r="F55">
-        <v>0.5614973262032086</v>
+        <v>0.5721649484536082</v>
       </c>
       <c r="G55">
-        <v>0.4447300771208226</v>
+        <v>0.4428327645051194</v>
       </c>
       <c r="H55">
-        <v>0.4493333333333333</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6878612716763006</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C56">
-        <v>0.4684889901290812</v>
+        <v>0.4977168949771689</v>
       </c>
       <c r="D56">
-        <v>0.5918367346938775</v>
+        <v>0.5761904761904761</v>
       </c>
       <c r="E56">
-        <v>0.4986351228389445</v>
+        <v>0.4834968777876896</v>
       </c>
       <c r="F56">
-        <v>0.5572139303482587</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="G56">
-        <v>0.4484848484848485</v>
+        <v>0.45</v>
       </c>
       <c r="H56">
-        <v>0.4386666666666666</v>
+        <v>0.4453333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6972972972972973</v>
+        <v>0.6927374301675978</v>
       </c>
       <c r="C57">
-        <v>0.4628787878787879</v>
+        <v>0.4924698795180723</v>
       </c>
       <c r="D57">
-        <v>0.576036866359447</v>
+        <v>0.5141509433962265</v>
       </c>
       <c r="E57">
-        <v>0.4950405770964833</v>
+        <v>0.4778368794326241</v>
       </c>
       <c r="F57">
-        <v>0.5538461538461539</v>
+        <v>0.5860215053763441</v>
       </c>
       <c r="G57">
-        <v>0.4553264604810996</v>
+        <v>0.4472789115646258</v>
       </c>
       <c r="H57">
-        <v>0.4346666666666666</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.711764705882353</v>
+        <v>0.7183908045977011</v>
       </c>
       <c r="C58">
-        <v>0.4636363636363636</v>
+        <v>0.4929157345264728</v>
       </c>
       <c r="D58">
-        <v>0.631336405529954</v>
+        <v>0.5817307692307693</v>
       </c>
       <c r="E58">
-        <v>0.5004428697962799</v>
+        <v>0.4911660777385159</v>
       </c>
       <c r="F58">
-        <v>0.5789473684210527</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G58">
-        <v>0.46815834767642</v>
+        <v>0.452604611443211</v>
       </c>
       <c r="H58">
-        <v>0.4146666666666667</v>
+        <v>0.4386666666666666</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.696969696969697</v>
+        <v>0.6627906976744186</v>
       </c>
       <c r="C59">
-        <v>0.4634873323397913</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D59">
-        <v>0.5895196506550219</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="E59">
-        <v>0.4888492417484389</v>
+        <v>0.4763572679509632</v>
       </c>
       <c r="F59">
-        <v>0.5706521739130435</v>
+        <v>0.5693069306930693</v>
       </c>
       <c r="G59">
-        <v>0.46815834767642</v>
+        <v>0.454855195911414</v>
       </c>
       <c r="H59">
-        <v>0.4146666666666667</v>
+        <v>0.4426666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6402439024390244</v>
+        <v>0.6704545454545454</v>
       </c>
       <c r="C60">
-        <v>0.4665676077265973</v>
+        <v>0.4862518089725036</v>
       </c>
       <c r="D60">
-        <v>0.5806451612903226</v>
+        <v>0.655</v>
       </c>
       <c r="E60">
-        <v>0.48816029143898</v>
+        <v>0.4764397905759162</v>
       </c>
       <c r="F60">
-        <v>0.5947368421052631</v>
+        <v>0.5960591133004927</v>
       </c>
       <c r="G60">
-        <v>0.4659188955996549</v>
+        <v>0.4566523605150214</v>
       </c>
       <c r="H60">
-        <v>0.42</v>
+        <v>0.4413333333333334</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6685714285714286</v>
+        <v>0.6892655367231638</v>
       </c>
       <c r="C61">
-        <v>0.4698181818181818</v>
+        <v>0.4860215053763441</v>
       </c>
       <c r="D61">
-        <v>0.5991379310344828</v>
+        <v>0.6377551020408163</v>
       </c>
       <c r="E61">
-        <v>0.4823008849557522</v>
+        <v>0.4693171996542783</v>
       </c>
       <c r="F61">
-        <v>0.6391752577319587</v>
+        <v>0.6</v>
       </c>
       <c r="G61">
-        <v>0.4764756201881951</v>
+        <v>0.452991452991453</v>
       </c>
       <c r="H61">
-        <v>0.4106666666666667</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6781609195402298</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="C62">
-        <v>0.4639769452449568</v>
+        <v>0.4770318021201413</v>
       </c>
       <c r="D62">
-        <v>0.6363636363636364</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="E62">
-        <v>0.4653204565408253</v>
+        <v>0.4763135228251507</v>
       </c>
       <c r="F62">
-        <v>0.7241379310344828</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="G62">
-        <v>0.4750211685012701</v>
+        <v>0.4483050847457627</v>
       </c>
       <c r="H62">
-        <v>0.3986666666666667</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.686046511627907</v>
+        <v>0.7283950617283951</v>
       </c>
       <c r="C63">
-        <v>0.4601139601139601</v>
+        <v>0.4818435754189944</v>
       </c>
       <c r="D63">
-        <v>0.6698113207547169</v>
+        <v>0.6294416243654822</v>
       </c>
       <c r="E63">
-        <v>0.462478184991274</v>
+        <v>0.4835640138408305</v>
       </c>
       <c r="F63">
-        <v>0.732620320855615</v>
+        <v>0.5852272727272727</v>
       </c>
       <c r="G63">
-        <v>0.4727577535624476</v>
+        <v>0.4507160909856782</v>
       </c>
       <c r="H63">
-        <v>0.3986666666666667</v>
+        <v>0.4506666666666667</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.735632183908046</v>
+        <v>0.7292817679558011</v>
       </c>
       <c r="C64">
-        <v>0.4609929078014184</v>
+        <v>0.4713506139154161</v>
       </c>
       <c r="D64">
-        <v>0.6831683168316832</v>
+        <v>0.6113989637305699</v>
       </c>
       <c r="E64">
-        <v>0.4630281690140845</v>
+        <v>0.4862068965517241</v>
       </c>
       <c r="F64">
-        <v>0.7142857142857143</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="G64">
-        <v>0.4770408163265306</v>
+        <v>0.4543168482816429</v>
       </c>
       <c r="H64">
-        <v>0.4013333333333333</v>
+        <v>0.4546666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6989247311827957</v>
+        <v>0.7159090909090909</v>
       </c>
       <c r="C65">
-        <v>0.4599860821155184</v>
+        <v>0.4779310344827586</v>
       </c>
       <c r="D65">
-        <v>0.6355140186915887</v>
+        <v>0.6720430107526881</v>
       </c>
       <c r="E65">
-        <v>0.4588031222896791</v>
+        <v>0.4895652173913044</v>
       </c>
       <c r="F65">
-        <v>0.6268656716417911</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="G65">
-        <v>0.4847457627118644</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="H65">
-        <v>0.404</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7660818713450293</v>
+        <v>0.7485714285714286</v>
       </c>
       <c r="C66">
-        <v>0.4562631210636809</v>
+        <v>0.4808743169398907</v>
       </c>
       <c r="D66">
-        <v>0.6113989637305699</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="E66">
-        <v>0.4687224669603524</v>
+        <v>0.4912891986062718</v>
       </c>
       <c r="F66">
-        <v>0.6632653061224489</v>
+        <v>0.574585635359116</v>
       </c>
       <c r="G66">
-        <v>0.4896551724137931</v>
+        <v>0.445578231292517</v>
       </c>
       <c r="H66">
-        <v>0.42</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.7102272727272727</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="C67">
-        <v>0.4530722484807562</v>
+        <v>0.4722036168787676</v>
       </c>
       <c r="D67">
-        <v>0.6547085201793722</v>
+        <v>0.5727699530516432</v>
       </c>
       <c r="E67">
-        <v>0.4720068906115418</v>
+        <v>0.4939236111111111</v>
       </c>
       <c r="F67">
-        <v>0.6135265700483091</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="G67">
-        <v>0.4910485933503836</v>
+        <v>0.447986577181208</v>
       </c>
       <c r="H67">
-        <v>0.4306666666666666</v>
+        <v>0.4853333333333333</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6966292134831461</v>
+        <v>0.6686390532544378</v>
       </c>
       <c r="C68">
-        <v>0.4608695652173913</v>
+        <v>0.4768921634293369</v>
       </c>
       <c r="D68">
-        <v>0.6650246305418719</v>
+        <v>0.6020942408376964</v>
       </c>
       <c r="E68">
-        <v>0.468586387434555</v>
+        <v>0.4899387576552931</v>
       </c>
       <c r="F68">
-        <v>0.559322033898305</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="G68">
-        <v>0.4936170212765957</v>
+        <v>0.4513947590870668</v>
       </c>
       <c r="H68">
-        <v>0.444</v>
+        <v>0.4933333333333333</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7218934911242604</v>
+        <v>0.7225806451612903</v>
       </c>
       <c r="C69">
-        <v>0.4621010638297872</v>
+        <v>0.4808201058201058</v>
       </c>
       <c r="D69">
-        <v>0.6313131313131313</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="E69">
-        <v>0.472027972027972</v>
+        <v>0.4869109947643979</v>
       </c>
       <c r="F69">
-        <v>0.5517241379310345</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="G69">
-        <v>0.5025295109612141</v>
+        <v>0.4480408858603067</v>
       </c>
       <c r="H69">
-        <v>0.4493333333333333</v>
+        <v>0.4893333333333333</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6827956989247311</v>
+        <v>0.7225806451612903</v>
       </c>
       <c r="C70">
-        <v>0.45703125</v>
+        <v>0.4773022049286641</v>
       </c>
       <c r="D70">
-        <v>0.6346153846153846</v>
+        <v>0.6261682242990654</v>
       </c>
       <c r="E70">
-        <v>0.4731833910034602</v>
+        <v>0.4767747589833479</v>
       </c>
       <c r="F70">
-        <v>0.546448087431694</v>
+        <v>0.6073298429319371</v>
       </c>
       <c r="G70">
-        <v>0.498744769874477</v>
+        <v>0.4437819420783646</v>
       </c>
       <c r="H70">
-        <v>0.4626666666666667</v>
+        <v>0.4893333333333333</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6914893617021277</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="C71">
-        <v>0.4654947916666667</v>
+        <v>0.4778987828315183</v>
       </c>
       <c r="D71">
-        <v>0.6442307692307693</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="E71">
-        <v>0.4668989547038327</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="F71">
-        <v>0.5675675675675675</v>
+        <v>0.6141304347826086</v>
       </c>
       <c r="G71">
-        <v>0.4932432432432433</v>
+        <v>0.4408510638297872</v>
       </c>
       <c r="H71">
-        <v>0.472</v>
+        <v>0.4893333333333333</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6983240223463687</v>
+        <v>0.7065868263473054</v>
       </c>
       <c r="C72">
-        <v>0.4684039087947883</v>
+        <v>0.4811018577834721</v>
       </c>
       <c r="D72">
-        <v>0.580952380952381</v>
+        <v>0.6244131455399061</v>
       </c>
       <c r="E72">
-        <v>0.4699646643109541</v>
+        <v>0.4744268077601411</v>
       </c>
       <c r="F72">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G72">
-        <v>0.4948453608247423</v>
+        <v>0.4453924914675768</v>
       </c>
       <c r="H72">
-        <v>0.476</v>
+        <v>0.4866666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6923076923076923</v>
+        <v>0.7151515151515152</v>
       </c>
       <c r="C73">
-        <v>0.4721332479180013</v>
+        <v>0.4748887476160203</v>
       </c>
       <c r="D73">
-        <v>0.5707964601769911</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="E73">
-        <v>0.4711623779946761</v>
+        <v>0.4740545294635005</v>
       </c>
       <c r="F73">
-        <v>0.5911330049261084</v>
+        <v>0.601063829787234</v>
       </c>
       <c r="G73">
-        <v>0.4870689655172414</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="H73">
-        <v>0.48</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6888888888888889</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="C74">
-        <v>0.4761904761904762</v>
+        <v>0.4751102709514808</v>
       </c>
       <c r="D74">
-        <v>0.5818181818181818</v>
+        <v>0.6062176165803109</v>
       </c>
       <c r="E74">
-        <v>0.4670231729055259</v>
+        <v>0.4799651567944251</v>
       </c>
       <c r="F74">
-        <v>0.6288659793814433</v>
+        <v>0.5875706214689266</v>
       </c>
       <c r="G74">
-        <v>0.4835640138408305</v>
+        <v>0.4530059271803556</v>
       </c>
       <c r="H74">
-        <v>0.4813333333333333</v>
+        <v>0.4826666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7005347593582888</v>
+        <v>0.6863905325443787</v>
       </c>
       <c r="C75">
-        <v>0.478562421185372</v>
+        <v>0.4806733167082294</v>
       </c>
       <c r="D75">
-        <v>0.5792079207920792</v>
+        <v>0.5628140703517588</v>
       </c>
       <c r="E75">
-        <v>0.4564831261101243</v>
+        <v>0.480719794344473</v>
       </c>
       <c r="F75">
-        <v>0.6111111111111112</v>
+        <v>0.5649717514124294</v>
       </c>
       <c r="G75">
-        <v>0.487510766580534</v>
+        <v>0.4514237855946399</v>
       </c>
       <c r="H75">
-        <v>0.4773333333333333</v>
+        <v>0.4866666666666667</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7046632124352331</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="C76">
-        <v>0.4779874213836478</v>
+        <v>0.4778816199376947</v>
       </c>
       <c r="D76">
-        <v>0.5645933014354066</v>
+        <v>0.6223404255319149</v>
       </c>
       <c r="E76">
-        <v>0.4589160839160839</v>
+        <v>0.4838427947598253</v>
       </c>
       <c r="F76">
-        <v>0.6237113402061856</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="G76">
-        <v>0.4913644214162349</v>
+        <v>0.4492385786802031</v>
       </c>
       <c r="H76">
-        <v>0.4706666666666667</v>
+        <v>0.4906666666666666</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7225433526011561</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C77">
-        <v>0.4778263585259213</v>
+        <v>0.4753694581280788</v>
       </c>
       <c r="D77">
-        <v>0.55</v>
+        <v>0.6292682926829268</v>
       </c>
       <c r="E77">
-        <v>0.4558180227471566</v>
+        <v>0.4774305555555556</v>
       </c>
       <c r="F77">
-        <v>0.5989847715736041</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="G77">
-        <v>0.4922945205479452</v>
+        <v>0.4476351351351351</v>
       </c>
       <c r="H77">
-        <v>0.4786666666666667</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7159763313609467</v>
+        <v>0.6875</v>
       </c>
       <c r="C78">
-        <v>0.4776758409785933</v>
+        <v>0.4716290420988408</v>
       </c>
       <c r="D78">
-        <v>0.5567567567567567</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="E78">
-        <v>0.4542314335060449</v>
+        <v>0.4763986013986014</v>
       </c>
       <c r="F78">
-        <v>0.6134020618556701</v>
+        <v>0.5738636363636364</v>
       </c>
       <c r="G78">
-        <v>0.494017094017094</v>
+        <v>0.4498299319727891</v>
       </c>
       <c r="H78">
-        <v>0.4653333333333333</v>
+        <v>0.4853333333333333</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6585365853658537</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C79">
-        <v>0.479368932038835</v>
+        <v>0.4770361298224127</v>
       </c>
       <c r="D79">
-        <v>0.5684210526315789</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="E79">
-        <v>0.4513651877133106</v>
+        <v>0.4748455428067079</v>
       </c>
       <c r="F79">
-        <v>0.615</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="G79">
-        <v>0.4974446337308348</v>
+        <v>0.4527824620573356</v>
       </c>
       <c r="H79">
-        <v>0.4506666666666667</v>
+        <v>0.4746666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.675</v>
+        <v>0.6978021978021978</v>
       </c>
       <c r="C80">
-        <v>0.483987915407855</v>
+        <v>0.4779411764705883</v>
       </c>
       <c r="D80">
-        <v>0.6009852216748769</v>
+        <v>0.6342592592592593</v>
       </c>
       <c r="E80">
-        <v>0.451219512195122</v>
+        <v>0.4764024933214604</v>
       </c>
       <c r="F80">
-        <v>0.5882352941176471</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="G80">
-        <v>0.4939236111111111</v>
+        <v>0.4577284372331341</v>
       </c>
       <c r="H80">
-        <v>0.4533333333333333</v>
+        <v>0.4613333333333333</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6666666666666666</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="C81">
-        <v>0.4842355740630577</v>
+        <v>0.4795856185252895</v>
       </c>
       <c r="D81">
-        <v>0.5741626794258373</v>
+        <v>0.6135265700483091</v>
       </c>
       <c r="E81">
-        <v>0.4493891797556719</v>
+        <v>0.4772929652715939</v>
       </c>
       <c r="F81">
-        <v>0.5187165775401069</v>
+        <v>0.5388888888888889</v>
       </c>
       <c r="G81">
-        <v>0.4995737425404945</v>
+        <v>0.4621342512908778</v>
       </c>
       <c r="H81">
-        <v>0.4546666666666667</v>
+        <v>0.4453333333333334</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6918604651162791</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C82">
-        <v>0.4832935560859188</v>
+        <v>0.4808383233532934</v>
       </c>
       <c r="D82">
-        <v>0.5728155339805825</v>
+        <v>0.6116504854368932</v>
       </c>
       <c r="E82">
-        <v>0.4588441330998249</v>
+        <v>0.4772329246935201</v>
       </c>
       <c r="F82">
-        <v>0.5060240963855421</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G82">
-        <v>0.5067681895093062</v>
+        <v>0.4560067681895093</v>
       </c>
       <c r="H82">
-        <v>0.4573333333333333</v>
+        <v>0.4533333333333333</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7049180327868853</v>
+        <v>0.6737967914438503</v>
       </c>
       <c r="C83">
-        <v>0.4796219728292971</v>
+        <v>0.4845605700712589</v>
       </c>
       <c r="D83">
-        <v>0.5666666666666667</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="E83">
-        <v>0.4539823008849557</v>
+        <v>0.4679930795847751</v>
       </c>
       <c r="F83">
-        <v>0.478021978021978</v>
+        <v>0.5266272189349113</v>
       </c>
       <c r="G83">
-        <v>0.5046413502109705</v>
+        <v>0.4562135112593828</v>
       </c>
       <c r="H83">
-        <v>0.4613333333333333</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6888888888888889</v>
+        <v>0.6402116402116402</v>
       </c>
       <c r="C84">
-        <v>0.4831460674157304</v>
+        <v>0.4819846426461902</v>
       </c>
       <c r="D84">
-        <v>0.6113744075829384</v>
+        <v>0.6292682926829268</v>
       </c>
       <c r="E84">
-        <v>0.4624889673433363</v>
+        <v>0.4622723330442324</v>
       </c>
       <c r="F84">
-        <v>0.5536723163841808</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="G84">
-        <v>0.5059523809523809</v>
+        <v>0.4547717842323651</v>
       </c>
       <c r="H84">
-        <v>0.4533333333333333</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6914285714285714</v>
+        <v>0.6943005181347151</v>
       </c>
       <c r="C85">
-        <v>0.4830409356725146</v>
+        <v>0.4870435806831567</v>
       </c>
       <c r="D85">
-        <v>0.5576036866359447</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="E85">
-        <v>0.4587719298245614</v>
+        <v>0.4611353711790393</v>
       </c>
       <c r="F85">
-        <v>0.5888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="G85">
-        <v>0.4945147679324894</v>
+        <v>0.4524810765349033</v>
       </c>
       <c r="H85">
-        <v>0.4493333333333333</v>
+        <v>0.4693333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6745562130177515</v>
+        <v>0.6284153005464481</v>
       </c>
       <c r="C86">
-        <v>0.4791425260718424</v>
+        <v>0.4813084112149533</v>
       </c>
       <c r="D86">
-        <v>0.5922330097087378</v>
+        <v>0.6214953271028038</v>
       </c>
       <c r="E86">
-        <v>0.4607237422771404</v>
+        <v>0.4607929515418502</v>
       </c>
       <c r="F86">
-        <v>0.5901639344262295</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="G86">
-        <v>0.4817950889077053</v>
+        <v>0.4493243243243243</v>
       </c>
       <c r="H86">
-        <v>0.456</v>
+        <v>0.4773333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7111111111111111</v>
+        <v>0.6373626373626373</v>
       </c>
       <c r="C87">
-        <v>0.4822857142857143</v>
+        <v>0.4894225271583762</v>
       </c>
       <c r="D87">
-        <v>0.6502463054187192</v>
+        <v>0.6292682926829268</v>
       </c>
       <c r="E87">
-        <v>0.4620749782040104</v>
+        <v>0.4677137870855148</v>
       </c>
       <c r="F87">
-        <v>0.5706521739130435</v>
+        <v>0.6149732620320856</v>
       </c>
       <c r="G87">
-        <v>0.4733276883996613</v>
+        <v>0.4493243243243243</v>
       </c>
       <c r="H87">
-        <v>0.476</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6978021978021978</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="C88">
-        <v>0.4804822043628014</v>
+        <v>0.4892897406989853</v>
       </c>
       <c r="D88">
-        <v>0.6071428571428571</v>
+        <v>0.6446700507614214</v>
       </c>
       <c r="E88">
-        <v>0.4594594594594595</v>
+        <v>0.4673539518900344</v>
       </c>
       <c r="F88">
-        <v>0.5597826086956522</v>
+        <v>0.5771428571428572</v>
       </c>
       <c r="G88">
-        <v>0.4727891156462585</v>
+        <v>0.447324414715719</v>
       </c>
       <c r="H88">
-        <v>0.4853333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6741573033707865</v>
+        <v>0.6871508379888268</v>
       </c>
       <c r="C89">
-        <v>0.4843838727995457</v>
+        <v>0.4866220735785953</v>
       </c>
       <c r="D89">
-        <v>0.587378640776699</v>
+        <v>0.6237113402061856</v>
       </c>
       <c r="E89">
-        <v>0.4666088464874241</v>
+        <v>0.4624027657735523</v>
       </c>
       <c r="F89">
-        <v>0.5692307692307692</v>
+        <v>0.6219512195121951</v>
       </c>
       <c r="G89">
-        <v>0.4762308998302207</v>
+        <v>0.4518828451882845</v>
       </c>
       <c r="H89">
-        <v>0.48</v>
+        <v>0.4613333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6836158192090396</v>
+        <v>0.7396449704142012</v>
       </c>
       <c r="C90">
-        <v>0.4853107344632768</v>
+        <v>0.4888143176733781</v>
       </c>
       <c r="D90">
-        <v>0.5829145728643216</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="E90">
-        <v>0.456369982547993</v>
+        <v>0.4649737302977233</v>
       </c>
       <c r="F90">
-        <v>0.5567567567567567</v>
+        <v>0.6358695652173914</v>
       </c>
       <c r="G90">
-        <v>0.4730538922155689</v>
+        <v>0.4490311710193766</v>
       </c>
       <c r="H90">
-        <v>0.476</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6702702702702703</v>
+        <v>0.7228915662650602</v>
       </c>
       <c r="C91">
-        <v>0.4874511991076408</v>
+        <v>0.4884868421052632</v>
       </c>
       <c r="D91">
-        <v>0.5789473684210527</v>
+        <v>0.5492957746478874</v>
       </c>
       <c r="E91">
-        <v>0.4569939183318853</v>
+        <v>0.474235807860262</v>
       </c>
       <c r="F91">
-        <v>0.6067415730337079</v>
+        <v>0.6062176165803109</v>
       </c>
       <c r="G91">
-        <v>0.4749362786745964</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="H91">
-        <v>0.4853333333333333</v>
+        <v>0.4693333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6722222222222223</v>
+        <v>0.7283236994219653</v>
       </c>
       <c r="C92">
-        <v>0.489432703003337</v>
+        <v>0.4926269797924631</v>
       </c>
       <c r="D92">
-        <v>0.6071428571428571</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="E92">
-        <v>0.4589160839160839</v>
+        <v>0.4735915492957746</v>
       </c>
       <c r="F92">
-        <v>0.580110497237569</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="G92">
-        <v>0.4665537679932261</v>
+        <v>0.4481576692373608</v>
       </c>
       <c r="H92">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7</v>
+        <v>0.6975308641975309</v>
       </c>
       <c r="C93">
-        <v>0.488499452354874</v>
+        <v>0.4909290819131391</v>
       </c>
       <c r="D93">
-        <v>0.5911330049261084</v>
+        <v>0.541871921182266</v>
       </c>
       <c r="E93">
-        <v>0.4477095937770095</v>
+        <v>0.4791111111111111</v>
       </c>
       <c r="F93">
-        <v>0.6041666666666666</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="G93">
-        <v>0.4702886247877759</v>
+        <v>0.4509466437177281</v>
       </c>
       <c r="H93">
-        <v>0.5</v>
+        <v>0.4613333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7096774193548387</v>
+        <v>0.725609756097561</v>
       </c>
       <c r="C94">
-        <v>0.4873178629249865</v>
+        <v>0.4913419913419914</v>
       </c>
       <c r="D94">
-        <v>0.6237113402061856</v>
+        <v>0.5450643776824035</v>
       </c>
       <c r="E94">
-        <v>0.450473729543497</v>
+        <v>0.4738706820194863</v>
       </c>
       <c r="F94">
-        <v>0.6122448979591837</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="G94">
-        <v>0.4653130287648054</v>
+        <v>0.4543103448275862</v>
       </c>
       <c r="H94">
-        <v>0.4973333333333333</v>
+        <v>0.4533333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6931216931216931</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="C95">
-        <v>0.4806539509536785</v>
+        <v>0.4876344086021505</v>
       </c>
       <c r="D95">
-        <v>0.6071428571428571</v>
+        <v>0.6062176165803109</v>
       </c>
       <c r="E95">
-        <v>0.4559721011333915</v>
+        <v>0.4728406055209261</v>
       </c>
       <c r="F95">
-        <v>0.5882352941176471</v>
+        <v>0.5760869565217391</v>
       </c>
       <c r="G95">
-        <v>0.4640069384215091</v>
+        <v>0.4511469838572642</v>
       </c>
       <c r="H95">
-        <v>0.4973333333333333</v>
+        <v>0.4466666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6935483870967742</v>
+        <v>0.6914285714285714</v>
       </c>
       <c r="C96">
-        <v>0.4800215982721383</v>
+        <v>0.4886853448275862</v>
       </c>
       <c r="D96">
-        <v>0.5954545454545455</v>
+        <v>0.6564102564102564</v>
       </c>
       <c r="E96">
-        <v>0.4671916010498688</v>
+        <v>0.4678819444444444</v>
       </c>
       <c r="F96">
-        <v>0.5577889447236181</v>
+        <v>0.601063829787234</v>
       </c>
       <c r="G96">
-        <v>0.4616709732988803</v>
+        <v>0.4550084889643464</v>
       </c>
       <c r="H96">
-        <v>0.5026666666666667</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.7055555555555556</v>
+        <v>0.7182320441988951</v>
       </c>
       <c r="C97">
-        <v>0.4809855382967327</v>
+        <v>0.4906467129877071</v>
       </c>
       <c r="D97">
-        <v>0.6119402985074627</v>
+        <v>0.5824742268041238</v>
       </c>
       <c r="E97">
-        <v>0.4734982332155477</v>
+        <v>0.4589455488331893</v>
       </c>
       <c r="F97">
-        <v>0.5257731958762887</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="G97">
-        <v>0.4506437768240343</v>
+        <v>0.453695836873407</v>
       </c>
       <c r="H97">
-        <v>0.4973333333333333</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.7034883720930233</v>
+        <v>0.7231638418079096</v>
       </c>
       <c r="C98">
-        <v>0.4796791443850267</v>
+        <v>0.4813233724653148</v>
       </c>
       <c r="D98">
-        <v>0.5904761904761905</v>
+        <v>0.5837837837837838</v>
       </c>
       <c r="E98">
-        <v>0.4714160070360598</v>
+        <v>0.4637931034482758</v>
       </c>
       <c r="F98">
-        <v>0.5771144278606966</v>
+        <v>0.593939393939394</v>
       </c>
       <c r="G98">
-        <v>0.4556416881998278</v>
+        <v>0.4511469838572642</v>
       </c>
       <c r="H98">
-        <v>0.4933333333333333</v>
+        <v>0.4373333333333334</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7028571428571428</v>
+        <v>0.6968085106382979</v>
       </c>
       <c r="C99">
-        <v>0.4792868379653907</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="D99">
-        <v>0.5829596412556054</v>
+        <v>0.6505376344086021</v>
       </c>
       <c r="E99">
-        <v>0.4725848563968668</v>
+        <v>0.4648370497427101</v>
       </c>
       <c r="F99">
-        <v>0.5685279187817259</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="G99">
-        <v>0.4478371501272265</v>
+        <v>0.4594820384294068</v>
       </c>
       <c r="H99">
-        <v>0.492</v>
+        <v>0.4266666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7243243243243244</v>
+        <v>0.6931818181818182</v>
       </c>
       <c r="C100">
-        <v>0.4741244119184527</v>
+        <v>0.4793432203389831</v>
       </c>
       <c r="D100">
-        <v>0.6127450980392157</v>
+        <v>0.6994818652849741</v>
       </c>
       <c r="E100">
-        <v>0.4728546409807355</v>
+        <v>0.4566724436741768</v>
       </c>
       <c r="F100">
-        <v>0.6153846153846154</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="G100">
-        <v>0.4424703891708968</v>
+        <v>0.4589331075359864</v>
       </c>
       <c r="H100">
-        <v>0.5</v>
+        <v>0.4386666666666666</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6989247311827957</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="C101">
-        <v>0.470281543274244</v>
+        <v>0.4847528916929548</v>
       </c>
       <c r="D101">
-        <v>0.6097560975609756</v>
+        <v>0.6291079812206573</v>
       </c>
       <c r="E101">
-        <v>0.4710017574692443</v>
+        <v>0.4531113058720421</v>
       </c>
       <c r="F101">
-        <v>0.5748502994011976</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="G101">
-        <v>0.4444444444444444</v>
+        <v>0.4636048526863085</v>
       </c>
       <c r="H101">
-        <v>0.508</v>
+        <v>0.456</v>
       </c>
     </row>
   </sheetData>
